--- a/Data Dictionaries (Upload Here)/DCF/DCF_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DCF/DCF_Data_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\P20 WIN\Data Dictionaries\DCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\DCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98142BD6-E832-49EF-A2A7-24CE1A354263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A2DF7-ED1E-4F8D-8DAF-BBB7E1026395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>DCF</t>
-  </si>
-  <si>
     <t>DCF_Person_ID</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>PIE Service Episodes</t>
+  </si>
+  <si>
+    <t>Department of Children and Families (DCF)</t>
   </si>
 </sst>
 </file>
@@ -983,10 +983,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="3" customWidth="1"/>
@@ -1000,7 +1000,7 @@
     <col min="38" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1053,1641 +1053,1641 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="F52" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="F53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="F56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="F57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="E59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="E60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="F60" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="D62" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="F62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="F63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="E64" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="F64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="E65" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="F65" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="E66" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="E67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="E68" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="F68" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="F69" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="F70" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="F71" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="F72" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="E73" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="F73" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="E74" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="11" t="s">
+      <c r="F77" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="E78" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="E79" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="F79" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G79" s="12"/>
     </row>

--- a/Data Dictionaries (Upload Here)/DCF/DCF_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DCF/DCF_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\B.3. P20WIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctgovexec-my.sharepoint.com/personal/augusta_irechukwu_ct_gov/Documents/Documents/GitHub/Data-Dictionaries/Data Dictionaries (Upload Here)/DCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47792542-172D-4959-AC22-2898F53D710A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{47792542-172D-4959-AC22-2898F53D710A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2254C08-FA06-4DAC-8F69-C06E33F05696}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="173">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -552,13 +552,16 @@
   </si>
   <si>
     <t>Obfuscated Unique identifier for this CPS report</t>
+  </si>
+  <si>
+    <t>2015 to Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +613,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -639,30 +648,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1000,25 +1006,25 @@
   <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y79" sqref="Y79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="34" width="3.33203125" style="8" customWidth="1"/>
-    <col min="35" max="37" width="4.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="33.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
+    <col min="8" max="34" width="3.28515625" style="7" customWidth="1"/>
+    <col min="35" max="37" width="4.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1071,1687 +1077,1848 @@
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
-    <row r="2" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="G4" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="G5" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="G6" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="G8" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="G9" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:37" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:37" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="G11" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="G12" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:37" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="G13" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:37" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="G14" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:37" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="G15" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="G16" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="G19" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="G21" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="F22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="G24" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="G25" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="F27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="F29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="F30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" s="12" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="F31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="F32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="F33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="F34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="G35" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="G36" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="G37" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="G38" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="F39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="F40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="F41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="F42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="F43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="F44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="G45" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="G47" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="G48" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="G49" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="F50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="F51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="G52" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="G53" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="11" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="F54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="G55" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="G56" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="G57" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="G58" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="G59" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="F60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="G61" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="F62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="F63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="F64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="F65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="G66" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="F67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="F68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="F69" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="F70" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="F71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="G72" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="G73" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="G74" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="11" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="F75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="G76" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="G77" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="G78" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="11" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="G79" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="11" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="F80" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G81" s="11"/>
+      <c r="G81" s="10" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
